--- a/ErrorFixing/Feature BackLogFINAL.xlsx
+++ b/ErrorFixing/Feature BackLogFINAL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22425" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,21 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>User Story</t>
   </si>
@@ -597,109 +600,109 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,24 +1021,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1067,14 +1070,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+    <row r="3" spans="1:13" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="17"/>
@@ -1087,10 +1090,10 @@
       <c r="G3" s="5"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1100,10 +1103,10 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="G5" s="7"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1126,14 +1129,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="17"/>
@@ -1146,10 +1149,10 @@
       <c r="G7" s="5"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="43"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1160,10 +1163,10 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="39"/>
+    <row r="9" spans="1:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1175,7 @@
       <c r="G9" s="7"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -1184,14 +1187,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="17"/>
@@ -1206,10 +1209,10 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="43"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
@@ -1224,10 +1227,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="39"/>
+    <row r="13" spans="1:13" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="19" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1243,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
@@ -1254,14 +1257,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
         <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="17"/>
@@ -1280,10 +1283,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
+    <row r="16" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="19" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1299,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="14"/>
       <c r="C17" s="16"/>
@@ -1310,14 +1313,14 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
+    <row r="18" spans="1:13" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
         <v>5</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="17"/>
@@ -1336,10 +1339,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="39"/>
+    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="19" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1357,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
@@ -1368,14 +1371,14 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
         <v>6</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="17"/>
@@ -1394,10 +1397,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="41"/>
+    <row r="22" spans="1:13" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="18" t="s">
         <v>15</v>
       </c>
@@ -1412,10 +1415,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="41"/>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="18" t="s">
         <v>16</v>
       </c>
@@ -1428,10 +1431,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="19" t="s">
         <v>17</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="B25" s="12"/>
       <c r="C25" s="8"/>
@@ -1458,7 +1461,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
@@ -1472,7 +1475,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
@@ -1486,14 +1489,14 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="30">
         <v>7</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="22"/>
@@ -1512,10 +1515,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="51"/>
+    <row r="29" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="19" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="14"/>
       <c r="C30" s="8"/>
@@ -1542,14 +1545,14 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="59">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="30">
         <v>8</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="17"/>
@@ -1568,23 +1571,25 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="49"/>
+    <row r="32" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="13"/>
       <c r="C33" s="9"/>
@@ -1598,14 +1603,14 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="30">
         <v>9</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="17"/>
@@ -1624,10 +1629,10 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="39"/>
+    <row r="35" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="19" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1645,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="13"/>
       <c r="C36" s="9"/>
@@ -1654,14 +1659,14 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
         <v>10</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -1682,10 +1687,10 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="52"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -1696,10 +1701,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="49"/>
+    <row r="39" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -1710,7 +1715,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="13"/>
       <c r="C40" s="9"/>
@@ -1724,14 +1729,14 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="59">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="30">
         <v>11</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -1752,10 +1757,10 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="52"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -1766,10 +1771,10 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="49"/>
+    <row r="43" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -1780,7 +1785,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="13"/>
       <c r="C44" s="9"/>
@@ -1794,14 +1799,14 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="59">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="30">
         <v>12</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -1822,10 +1827,10 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="52"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -1834,10 +1839,10 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="49"/>
+    <row r="47" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -1846,7 +1851,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="13"/>
       <c r="C48" s="9"/>
@@ -1858,14 +1863,14 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="56">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="33">
         <v>13</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -1884,19 +1889,21 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="49"/>
+    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="14"/>
       <c r="C51" s="8"/>
@@ -1908,14 +1915,14 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30">
         <v>14</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -1934,10 +1941,10 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="49"/>
+    <row r="53" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -1946,7 +1953,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
@@ -1958,7 +1965,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
@@ -1970,7 +1977,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -1982,7 +1989,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="28"/>
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
@@ -1994,7 +2001,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -2006,14 +2013,14 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="33">
         <v>15</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -2032,10 +2039,10 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="54"/>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="35"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -2044,10 +2051,10 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="54"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -2056,10 +2063,10 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="55"/>
+    <row r="62" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -2068,7 +2075,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="10"/>
       <c r="C63" s="23"/>
@@ -2080,14 +2087,14 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="30">
         <v>16</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="36" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -2106,16 +2113,16 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="49"/>
+    <row r="65" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="12"/>
       <c r="C66" s="24"/>
@@ -2124,33 +2131,39 @@
       <c r="F66" s="18"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="59">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="30">
         <v>17</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="61"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="49"/>
+      <c r="F67" s="26">
+        <v>42487</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="10"/>
       <c r="C69" s="23"/>
@@ -2159,14 +2172,14 @@
       <c r="F69" s="20"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="59">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="30">
         <v>18</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="17" t="s">
@@ -2182,10 +2195,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="49"/>
+    <row r="71" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -2193,24 +2206,30 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C49:C50"/>
@@ -2223,38 +2242,27 @@
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A59:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2266,205 +2274,213 @@
       <selection sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+    </row>
+    <row r="5" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+    </row>
+    <row r="6" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="62"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+    </row>
+    <row r="9" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+    </row>
+    <row r="10" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
+    </row>
+    <row r="13" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+    </row>
+    <row r="14" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+    </row>
+    <row r="17" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+    </row>
+    <row r="20" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64"/>
+    </row>
+    <row r="24" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+    </row>
+    <row r="25" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="63"/>
+    </row>
+    <row r="28" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63"/>
+    </row>
+    <row r="31" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+    </row>
+    <row r="34" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="64"/>
+    </row>
+    <row r="37" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="63"/>
+    </row>
+    <row r="38" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="64"/>
+    </row>
+    <row r="41" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="63"/>
+    </row>
+    <row r="42" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="62"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="64"/>
+    </row>
+    <row r="45" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63"/>
+    </row>
+    <row r="46" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="62"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="64"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="63"/>
+    </row>
+    <row r="49" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="63"/>
+    </row>
+    <row r="52" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="64"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="64"/>
+    </row>
+    <row r="56" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="63"/>
+    </row>
+    <row r="57" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="62"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="63"/>
+    </row>
+    <row r="60" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="62"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="63"/>
+    </row>
+    <row r="63" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="62"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
+    <row r="65" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A58:A59"/>
@@ -2475,20 +2491,7 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/ErrorFixing/Feature BackLogFINAL.xlsx
+++ b/ErrorFixing/Feature BackLogFINAL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazaro\Desktop\CSE360Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="23460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>User Story</t>
   </si>
@@ -172,11 +172,20 @@
     <t>As a File, I want to read the stats so that I can save them
 for the player to eventually see. (GUI)</t>
   </si>
+  <si>
+    <t>As a player, I want to mouse over a structure to display building options giving me what resources are required to build it.</t>
+  </si>
+  <si>
+    <t>As a player, I want to view the help menu for instructions on how to play the game.</t>
+  </si>
+  <si>
+    <t>As a player, I want to pick my environment to choose which resources I start with.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,109 +609,109 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,26 +1028,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1070,14 +1079,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+    <row r="3" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="17"/>
@@ -1090,10 +1099,10 @@
       <c r="G3" s="5"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="57"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1103,10 +1112,10 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="58"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1124,7 @@
       <c r="G5" s="7"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1129,14 +1138,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="17"/>
@@ -1149,10 +1158,10 @@
       <c r="G7" s="5"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="49"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1163,10 +1172,10 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="45"/>
+    <row r="9" spans="1:13" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1184,7 @@
       <c r="G9" s="7"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -1187,14 +1196,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
         <v>3</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="17"/>
@@ -1209,10 +1218,10 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="49"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
@@ -1227,10 +1236,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="45"/>
+    <row r="13" spans="1:13" ht="51.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="19" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1252,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
@@ -1257,14 +1266,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="56">
         <v>4</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="38" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="17"/>
@@ -1283,10 +1292,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="45"/>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="19" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1308,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
       <c r="B17" s="14"/>
       <c r="C17" s="16"/>
@@ -1313,14 +1322,14 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+    <row r="18" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59">
         <v>5</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="17"/>
@@ -1339,10 +1348,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="45"/>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="19" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1366,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
@@ -1371,14 +1380,14 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56">
         <v>6</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="17"/>
@@ -1397,10 +1406,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="56"/>
+    <row r="22" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="18" t="s">
         <v>15</v>
       </c>
@@ -1415,10 +1424,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="56"/>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="57"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="18" t="s">
         <v>16</v>
       </c>
@@ -1431,10 +1440,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="57"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="58"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="19" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1456,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="12"/>
       <c r="C25" s="8"/>
@@ -1461,7 +1470,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
@@ -1475,7 +1484,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
@@ -1489,14 +1498,14 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="59">
         <v>7</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="22"/>
@@ -1515,10 +1524,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="19" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1540,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28"/>
       <c r="B30" s="14"/>
       <c r="C30" s="8"/>
@@ -1545,14 +1554,14 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="59">
         <v>8</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="17"/>
@@ -1571,10 +1580,10 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="37"/>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="61"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="19" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1598,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28"/>
       <c r="B33" s="13"/>
       <c r="C33" s="9"/>
@@ -1603,14 +1612,14 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="59">
         <v>9</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="17"/>
@@ -1629,10 +1638,10 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="45"/>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="19" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1654,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
       <c r="B36" s="13"/>
       <c r="C36" s="9"/>
@@ -1659,14 +1668,14 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="33">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="56">
         <v>10</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -1687,10 +1696,10 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="40"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -1701,10 +1710,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="37"/>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="58"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -1715,7 +1724,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
       <c r="B40" s="13"/>
       <c r="C40" s="9"/>
@@ -1729,14 +1738,14 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="59">
         <v>11</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -1757,10 +1766,10 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="40"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -1771,10 +1780,10 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="37"/>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="61"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -1785,7 +1794,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="28"/>
       <c r="B44" s="13"/>
       <c r="C44" s="9"/>
@@ -1799,14 +1808,14 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="59">
         <v>12</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -1827,10 +1836,10 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="40"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="60"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -1839,10 +1848,10 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="37"/>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="61"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -1851,7 +1860,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="28"/>
       <c r="B48" s="13"/>
       <c r="C48" s="9"/>
@@ -1863,14 +1872,14 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="33">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="56">
         <v>13</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -1889,10 +1898,10 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="37"/>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="58"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="21"/>
@@ -1903,7 +1912,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="28"/>
       <c r="B51" s="14"/>
       <c r="C51" s="8"/>
@@ -1915,14 +1924,14 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59">
         <v>14</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -1941,10 +1950,10 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="37"/>
+    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="61"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -1953,7 +1962,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="28"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
@@ -1965,301 +1974,257 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="11"/>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="56">
+        <v>15</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="26">
+        <v>42482</v>
+      </c>
+      <c r="F55" s="26">
+        <v>42488</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="11"/>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="57"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="6"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="11"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="57"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="6"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="11"/>
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="58"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="7"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="33">
-        <v>15</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="26">
-        <v>42482</v>
-      </c>
-      <c r="F59" s="26">
-        <v>42488</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>36</v>
-      </c>
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="28"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="11"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="6"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="59">
+        <v>16</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="26">
+        <v>42485</v>
+      </c>
+      <c r="F60" s="26">
+        <v>42485</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="6"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="7"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="11"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
-        <v>16</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="17" t="s">
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="61"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="28"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="59">
+        <v>17</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="26">
-        <v>42485</v>
-      </c>
-      <c r="F64" s="26">
-        <v>42485</v>
-      </c>
-      <c r="G64" s="29" t="s">
+      <c r="E63" s="26">
+        <v>42484</v>
+      </c>
+      <c r="F63" s="26">
+        <v>42487</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="61"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="28"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="59">
+        <v>18</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="26">
+        <v>42475</v>
+      </c>
+      <c r="F66" s="26">
+        <v>42482</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
-        <v>17</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="26">
-        <v>42487</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="30">
-        <v>18</v>
-      </c>
-      <c r="B70" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="26">
-        <v>42475</v>
-      </c>
-      <c r="F70" s="26">
-        <v>42482</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="61"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
@@ -2274,213 +2239,205 @@
       <selection sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-    </row>
-    <row r="5" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-    </row>
-    <row r="6" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="64"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-    </row>
-    <row r="9" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-    </row>
-    <row r="10" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="64"/>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="62"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-    </row>
-    <row r="13" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-    </row>
-    <row r="14" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="62"/>
     </row>
-    <row r="16" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-    </row>
-    <row r="17" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="64"/>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="62"/>
     </row>
-    <row r="19" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-    </row>
-    <row r="20" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="64"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="62"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-    </row>
-    <row r="24" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-    </row>
-    <row r="25" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="64"/>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="62"/>
     </row>
-    <row r="27" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-    </row>
-    <row r="28" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="64"/>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="62"/>
     </row>
-    <row r="30" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-    </row>
-    <row r="31" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="64"/>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="62"/>
     </row>
-    <row r="33" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-    </row>
-    <row r="34" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="64"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="62"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-    </row>
-    <row r="37" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-    </row>
-    <row r="38" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="63"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="64"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="62"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-    </row>
-    <row r="41" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-    </row>
-    <row r="42" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="64"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-    </row>
-    <row r="45" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-    </row>
-    <row r="46" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="64"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="62"/>
     </row>
-    <row r="48" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-    </row>
-    <row r="49" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="64"/>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-    </row>
-    <row r="52" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="64"/>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="64"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-    </row>
-    <row r="56" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-    </row>
-    <row r="57" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="63"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="63"/>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64"/>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="62"/>
     </row>
-    <row r="59" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-    </row>
-    <row r="60" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="64"/>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="62"/>
     </row>
-    <row r="62" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-    </row>
-    <row r="63" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="64"/>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="62"/>
     </row>
-    <row r="65" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A58:A59"/>
@@ -2491,6 +2448,14 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
